--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcsalgado\Documents\Adid\tec\tec6\Opti\Reto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86891A72-C911-4063-ADA5-5EF24EAECF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EEFA94-E162-4171-B504-5C4D113E8AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{3CFAEDAC-BFB0-4A86-949C-30DC1871F13A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CFAEDAC-BFB0-4A86-949C-30DC1871F13A}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -29,53 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>valor</t>
   </si>
   <si>
-    <t xml:space="preserve">parametro                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">almacenamiento                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">costo_plantacion             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dias_anticipacion            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_dias_aclimatacion        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_dias_aclimatacion        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dias_simulacion              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">velocidad_camioneta          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiempo_maximo                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiempo_carga                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">carga_maxima                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacidad_maxima_transporte  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">costo_transporte             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_polygon                </t>
-  </si>
-  <si>
     <t>poligono</t>
   </si>
   <si>
@@ -125,6 +83,51 @@
   </si>
   <si>
     <t>especie 9</t>
+  </si>
+  <si>
+    <t>costo_plantacion</t>
+  </si>
+  <si>
+    <t>parametro</t>
+  </si>
+  <si>
+    <t>almacenamiento</t>
+  </si>
+  <si>
+    <t>dias_anticipacion</t>
+  </si>
+  <si>
+    <t>min_dias_aclimatacion</t>
+  </si>
+  <si>
+    <t>max_dias_aclimatacion</t>
+  </si>
+  <si>
+    <t>velocidad_camioneta</t>
+  </si>
+  <si>
+    <t>tiempo_maximo</t>
+  </si>
+  <si>
+    <t>tiempo_carga</t>
+  </si>
+  <si>
+    <t>carga_maxima</t>
+  </si>
+  <si>
+    <t>capacidad_maxima_transporte</t>
+  </si>
+  <si>
+    <t>costo_transporte</t>
+  </si>
+  <si>
+    <t>start_polygon</t>
+  </si>
+  <si>
+    <t>dias_simulacion</t>
+  </si>
+  <si>
+    <t>espacio_por_planta</t>
   </si>
 </sst>
 </file>
@@ -476,17 +479,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5389CD99-27DF-4C8A-BD9C-AB30E01D40FD}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -494,7 +500,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -502,7 +508,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -510,7 +516,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -518,7 +524,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -526,7 +532,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -534,15 +540,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -550,7 +556,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -558,7 +564,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -566,7 +572,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>524</v>
@@ -574,7 +580,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>8000</v>
@@ -582,7 +588,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>4500</v>
@@ -590,10 +596,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -606,17 +620,17 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -664,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7.11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,17 +795,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -847,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -876,28 +890,28 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -914,7 +928,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -931,7 +945,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -948,7 +962,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -965,7 +979,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -982,7 +996,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -999,7 +1013,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -1016,7 +1030,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>26.5</v>
@@ -1033,7 +1047,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>26</v>
@@ -1058,7 +1072,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcsalgado\Documents\Adid\tec\tec6\Opti\Reto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EEFA94-E162-4171-B504-5C4D113E8AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF974D4A-E95B-4CEC-A804-53F18A0D2085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CFAEDAC-BFB0-4A86-949C-30DC1871F13A}"/>
+    <workbookView xWindow="0" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{3CFAEDAC-BFB0-4A86-949C-30DC1871F13A}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5389CD99-27DF-4C8A-BD9C-AB30E01D40FD}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
